--- a/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3186C117-37E0-4DC3-8072-E62EBDF8771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD53446-A93E-4455-B00D-677BCAA744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A84DF32-0B2D-4E18-B38D-D234FC74A968}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4DD5A50C-C709-4861-9428-7E76D415E993}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,87 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
@@ -97,15 +163,9 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,62%</t>
   </si>
   <si>
@@ -124,43 +184,37 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -190,60 +244,6 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -295,6 +295,72 @@
     <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -331,40 +397,16 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -376,9 +418,6 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>98,76%</t>
   </si>
   <si>
@@ -391,48 +430,9 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>98,45%</t>
   </si>
   <si>
@@ -466,6 +466,48 @@
     <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>99,72%</t>
   </si>
   <si>
@@ -502,22 +544,22 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -530,48 +572,6 @@
   </si>
   <si>
     <t>0,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2579446-F847-4976-90EC-9748B9455A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00CC6EB-0F26-4F98-BA99-57D3391A9605}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>211457</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,85 +1114,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>193860</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>631</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405317</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>685</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1988</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1201,54 +1201,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1260,13 +1260,13 @@
         <v>126913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1275,13 +1275,13 @@
         <v>116002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -1290,19 +1290,19 @@
         <v>242915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1311,13 +1311,13 @@
         <v>720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1341,13 +1341,13 @@
         <v>720</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,13 +1362,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1377,13 +1377,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1392,117 +1392,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207129</v>
+        <v>211457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I10" s="7">
-        <v>208632</v>
+        <v>193860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="N10" s="7">
-        <v>415761</v>
+        <v>405317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1988</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>683</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1378</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,108 +1511,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>228</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137293</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>460</v>
+      </c>
+      <c r="N13" s="7">
+        <v>286950</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1621,43 +1621,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,150 +1666,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="I16" s="7">
-        <v>137293</v>
+        <v>208632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>578</v>
+      </c>
+      <c r="N16" s="7">
+        <v>415761</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>460</v>
-      </c>
-      <c r="N16" s="7">
-        <v>286950</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>524</v>
+        <v>683</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>524</v>
+        <v>1378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>67</v>
@@ -1821,49 +1821,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>1399111</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>74</v>
@@ -1922,7 +1922,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1961,7 +1961,7 @@
         <v>4610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>82</v>
@@ -1982,13 +1982,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1997,13 +1997,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2012,13 +2012,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E73A263-D9DE-4313-86A9-03C363DD40DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5C062-667D-480A-86A5-27A2653F07B9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2157,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>220655</v>
+        <v>24300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>85</v>
@@ -2169,16 +2169,16 @@
         <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>204713</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>87</v>
@@ -2187,10 +2187,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>635</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>425369</v>
+        <v>46673</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>88</v>
@@ -2199,58 +2199,58 @@
         <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1323</v>
+        <v>1155</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>685</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>1155</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2007</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,54 +2259,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2318,13 +2318,13 @@
         <v>126277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -2333,13 +2333,13 @@
         <v>113357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>337</v>
@@ -2348,19 +2348,19 @@
         <v>239634</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2369,13 +2369,13 @@
         <v>1366</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2384,13 +2384,13 @@
         <v>661</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2399,13 +2399,13 @@
         <v>2027</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2435,13 +2435,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2450,114 +2450,114 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>205621</v>
+        <v>220655</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>316</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204713</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>635</v>
+      </c>
+      <c r="N10" s="7">
+        <v>425369</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7">
-        <v>554</v>
-      </c>
-      <c r="N10" s="7">
-        <v>415921</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1461</v>
+        <v>1323</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>685</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2007</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1461</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>118</v>
@@ -2569,123 +2569,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>24300</v>
+        <v>165401</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>241</v>
+      </c>
+      <c r="I13" s="7">
+        <v>154839</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
+        <v>495</v>
+      </c>
+      <c r="N13" s="7">
+        <v>320240</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="7">
-        <v>46673</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1155</v>
+        <v>584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1155</v>
+        <v>584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,123 +2724,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7">
-        <v>165401</v>
+        <v>205621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="N16" s="7">
-        <v>320240</v>
+        <v>415921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>584</v>
+        <v>1461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2849,28 +2849,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1461</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>584</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +2879,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2938,13 @@
         <v>742253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>1016</v>
@@ -2956,10 +2956,10 @@
         <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2074</v>
@@ -2980,7 +2980,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -2989,10 +2989,10 @@
         <v>5889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>136</v>
@@ -3007,10 +3007,10 @@
         <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3040,13 +3040,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3055,13 +3055,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3070,13 +3070,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A513DA5-BADD-4A03-BF5B-D3DC7A1B0171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C960982-4F1E-45D9-B474-38BF3E579666}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3215,100 +3215,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>223733</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21927</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>331</v>
-      </c>
-      <c r="I4" s="7">
-        <v>205174</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47501</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="7">
-        <v>662</v>
-      </c>
-      <c r="N4" s="7">
-        <v>428907</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>600</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>600</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>626</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2073</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2699</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,54 +3317,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3376,13 +3376,13 @@
         <v>121762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3391,13 +3391,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3406,19 +3406,19 @@
         <v>232942</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3427,13 +3427,13 @@
         <v>740</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3457,13 +3457,13 @@
         <v>740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3493,13 +3493,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3508,117 +3508,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>223733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>331</v>
+      </c>
+      <c r="I10" s="7">
+        <v>205174</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="7">
+        <v>662</v>
+      </c>
+      <c r="N10" s="7">
+        <v>428907</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7">
-        <v>281</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7">
-        <v>571</v>
-      </c>
-      <c r="N10" s="7">
-        <v>413156</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>2699</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,153 +3627,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>21927</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="N13" s="7">
-        <v>47501</v>
+        <v>322036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>634</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>600</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,99 +3782,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166039</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>322036</v>
+        <v>413156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3883,22 +3883,22 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3907,28 +3907,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,49 +3937,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,10 +3996,10 @@
         <v>742845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>178</v>
@@ -4011,7 +4011,7 @@
         <v>701698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>179</v>
@@ -4026,10 +4026,10 @@
         <v>1444543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>180</v>
@@ -4038,7 +4038,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4047,13 +4047,13 @@
         <v>1999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4062,7 +4062,7 @@
         <v>2673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>77</v>
@@ -4077,13 +4077,13 @@
         <v>4672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4098,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4113,13 +4113,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4128,13 +4128,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD53446-A93E-4455-B00D-677BCAA744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0709FF97-44E4-4FF2-BC7E-C682FFA87CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4DD5A50C-C709-4861-9428-7E76D415E993}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80B2A0BA-761C-4E5E-9EB7-94B72ADBB7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="195">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>96,64%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -124,442 +139,454 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,38%</t>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -568,10 +595,22 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -580,16 +619,10 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
 </sst>
 </file>
@@ -600,7 +633,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -696,39 +729,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -780,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -891,13 +924,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -906,6 +932,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -970,19 +1003,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00CC6EB-0F26-4F98-BA99-57D3391A9605}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0B7C58-8C9A-4097-A07D-5E5C65C17EFF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1099,10 +1152,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,34 +1167,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1150,10 +1203,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1165,34 +1218,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1207,13 +1260,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1222,13 +1275,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1237,13 +1290,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,49 +1307,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126913</v>
+        <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242915</v>
+        <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,49 +1358,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>720</v>
+        <v>126913</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>720</v>
+        <v>242915</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,13 +1415,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1377,13 +1430,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1392,13 +1445,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,40 +1462,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>211457</v>
+        <v>685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>193860</v>
+        <v>1303</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>405317</v>
+        <v>1988</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1460,40 +1513,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>211457</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="I11" s="7">
-        <v>1303</v>
+        <v>193860</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>1988</v>
+        <v>405317</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1517,13 +1570,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1532,13 +1585,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1547,13 +1600,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,49 +1617,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>137293</v>
+        <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>286950</v>
+        <v>524</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,49 +1668,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>137293</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>524</v>
+        <v>286950</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,13 +1725,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1687,13 +1740,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1702,13 +1755,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1772,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207129</v>
+        <v>695</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>208632</v>
+        <v>683</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>578</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>415761</v>
+        <v>1378</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1823,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>695</v>
+        <v>207129</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>208632</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>578</v>
       </c>
       <c r="N17" s="7">
-        <v>1378</v>
+        <v>415761</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1880,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1842,13 +1895,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1857,13 +1910,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720600</v>
+        <v>2100</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>68</v>
@@ -1889,10 +1942,10 @@
         <v>70</v>
       </c>
       <c r="H19" s="7">
-        <v>1014</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>678511</v>
+        <v>2510</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>71</v>
@@ -1904,10 +1957,10 @@
         <v>73</v>
       </c>
       <c r="M19" s="7">
-        <v>2097</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>1399111</v>
+        <v>4610</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>60</v>
@@ -1925,10 +1978,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>2100</v>
+        <v>720600</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>76</v>
@@ -1940,10 +1993,10 @@
         <v>78</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>1014</v>
       </c>
       <c r="I20" s="7">
-        <v>2510</v>
+        <v>678511</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>79</v>
@@ -1955,10 +2008,10 @@
         <v>81</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>2097</v>
       </c>
       <c r="N20" s="7">
-        <v>4610</v>
+        <v>1399111</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>64</v>
@@ -1982,13 +2035,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1997,13 +2050,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2012,13 +2065,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +2097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5C062-667D-480A-86A5-27A2653F07B9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88719-39E8-40EC-BBFC-4B580DDB4BF4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2056,7 +2114,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2157,49 +2215,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>24300</v>
+        <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46673</v>
+        <v>1155</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,49 +2266,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>1155</v>
+        <v>24300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>1155</v>
+        <v>46673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2323,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2280,13 +2338,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2295,13 +2353,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2370,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>126277</v>
+        <v>1366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>661</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113357</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>239634</v>
+        <v>2027</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2421,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D8" s="7">
-        <v>1366</v>
+        <v>126277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>113357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="N8" s="7">
-        <v>2027</v>
+        <v>239634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2478,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2435,13 +2493,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2450,13 +2508,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>220655</v>
+        <v>1323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>204713</v>
+        <v>685</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>425369</v>
+        <v>2007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,49 +2576,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>1323</v>
+        <v>220654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>685</v>
+        <v>204713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>2007</v>
+        <v>425369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,16 +2630,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2590,13 +2648,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2605,13 +2663,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165401</v>
+        <v>584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>320240</v>
+        <v>584</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,49 +2731,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>584</v>
+        <v>165401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>584</v>
+        <v>320240</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2788,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2745,13 +2803,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2760,13 +2818,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>205621</v>
+        <v>1461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>415921</v>
+        <v>1461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,49 +2886,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>1461</v>
+        <v>205621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>554</v>
       </c>
       <c r="N17" s="7">
-        <v>1461</v>
+        <v>415921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2943,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2900,13 +2958,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2915,13 +2973,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2990,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1058</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>742253</v>
+        <v>5889</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>705582</v>
+        <v>1346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>2074</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>1447836</v>
+        <v>7234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,49 +3041,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1058</v>
       </c>
       <c r="D20" s="7">
-        <v>5889</v>
+        <v>742253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1346</v>
+        <v>705582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>2074</v>
       </c>
       <c r="N20" s="7">
-        <v>7234</v>
+        <v>1447836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3098,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3055,13 +3113,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3070,13 +3128,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3097,8 +3160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C960982-4F1E-45D9-B474-38BF3E579666}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA55EEE-6F59-4807-84EF-6808099F93A5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3114,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3215,49 +3278,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21927</v>
+        <v>600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>600</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47501</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,49 +3329,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>600</v>
+        <v>21927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>600</v>
+        <v>47501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3386,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3338,13 +3401,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3353,13 +3416,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,49 +3433,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>121762</v>
+        <v>740</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>232942</v>
+        <v>740</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,49 +3484,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>740</v>
+        <v>121762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>740</v>
+        <v>232942</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3541,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3493,13 +3556,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3508,13 +3571,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,49 +3588,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>223733</v>
+        <v>626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>205174</v>
+        <v>2073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>662</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>428907</v>
+        <v>2699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +3639,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>626</v>
+        <v>223733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>2073</v>
+        <v>205174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>662</v>
       </c>
       <c r="N11" s="7">
-        <v>2699</v>
+        <v>428907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3696,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3648,13 +3711,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3663,13 +3726,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,49 +3743,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>166039</v>
+        <v>634</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>322036</v>
+        <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,49 +3794,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>634</v>
+        <v>166039</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>634</v>
+        <v>322036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3851,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3803,13 +3866,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3818,13 +3881,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,49 +3898,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>413156</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,49 +3949,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>413156</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4006,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3958,13 +4021,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3973,13 +4036,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +4053,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>742845</v>
+        <v>1999</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
-        <v>1057</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>701698</v>
+        <v>2673</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
-        <v>2119</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>1444543</v>
+        <v>4672</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,49 +4104,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>1999</v>
+        <v>742845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="I20" s="7">
-        <v>2673</v>
+        <v>701698</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>2119</v>
       </c>
       <c r="N20" s="7">
-        <v>4672</v>
+        <v>1444543</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4161,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4113,13 +4176,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4128,13 +4191,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0709FF97-44E4-4FF2-BC7E-C682FFA87CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13FC6EB-8591-47E1-A318-E905FA17FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80B2A0BA-761C-4E5E-9EB7-94B72ADBB7A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45D306E4-2C8C-4BF3-8388-2B1CEC744305}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -121,13 +121,13 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>96,06%</t>
+    <t>96,79%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -136,22 +136,22 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -160,31 +160,31 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -193,436 +193,418 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0B7C58-8C9A-4097-A07D-5E5C65C17EFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4493C-6B06-4341-BF5B-EA0E2CD44E7F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,10 +1933,10 @@
         <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1966,10 +1948,10 @@
         <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +1966,13 @@
         <v>720600</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>1014</v>
@@ -1999,13 +1981,13 @@
         <v>678511</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
@@ -2017,10 +1999,10 @@
         <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,7 +2058,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88719-39E8-40EC-BBFC-4B580DDB4BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643FBCA-01C0-4E2A-B50A-9A6EC6956031}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2114,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2221,13 +2203,13 @@
         <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2242,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2251,13 +2233,13 @@
         <v>1155</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,10 +2254,10 @@
         <v>24300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2290,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2302,10 +2284,10 @@
         <v>46673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2376,13 +2358,13 @@
         <v>1366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2391,13 +2373,13 @@
         <v>661</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2406,13 +2388,13 @@
         <v>2027</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,10 +2409,10 @@
         <v>126277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2442,10 +2424,10 @@
         <v>113357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2457,13 +2439,13 @@
         <v>239634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2513,13 @@
         <v>1323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2552,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2561,13 +2543,13 @@
         <v>2007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2561,13 @@
         <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>220654</v>
+        <v>220655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2600,7 +2582,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2612,13 +2594,13 @@
         <v>425369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,7 +2612,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2686,13 +2668,13 @@
         <v>584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2707,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2722,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2719,10 @@
         <v>165401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2755,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2770,7 +2752,7 @@
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2841,13 +2823,13 @@
         <v>1461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2862,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2871,13 +2853,13 @@
         <v>1461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,10 +2874,10 @@
         <v>205621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2910,7 +2892,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2922,10 +2904,10 @@
         <v>415921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2996,13 +2978,13 @@
         <v>5889</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3011,13 +2993,13 @@
         <v>1346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3026,13 +3008,13 @@
         <v>7234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3029,13 @@
         <v>742253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>1016</v>
@@ -3062,10 +3044,10 @@
         <v>705582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3077,13 +3059,13 @@
         <v>1447836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3121,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA55EEE-6F59-4807-84EF-6808099F93A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA07F90-BA91-4D67-B880-F2FD2BD24088}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3290,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3299,13 +3281,13 @@
         <v>600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3314,13 +3296,13 @@
         <v>600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3320,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3350,10 +3332,10 @@
         <v>21927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3365,10 +3347,10 @@
         <v>47501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3439,13 +3421,13 @@
         <v>740</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3460,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3475,7 +3457,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3472,10 @@
         <v>121762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3508,7 +3490,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3523,7 +3505,7 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3594,13 +3576,13 @@
         <v>626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3609,13 +3591,13 @@
         <v>2073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3624,13 +3606,13 @@
         <v>2699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,10 +3627,10 @@
         <v>223733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3660,13 +3642,13 @@
         <v>205174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3675,13 +3657,13 @@
         <v>428907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3770,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3779,13 +3761,13 @@
         <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3785,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3818,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3830,10 +3812,10 @@
         <v>322036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3910,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3925,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3940,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3973,7 +3955,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3988,7 +3970,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4059,13 +4041,13 @@
         <v>1999</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4077,10 +4059,10 @@
         <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4092,10 +4074,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4092,13 @@
         <v>742845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -4128,10 +4110,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>2119</v>
@@ -4143,10 +4125,10 @@
         <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,7 +4184,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13FC6EB-8591-47E1-A318-E905FA17FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15E37F6-3864-40FC-B619-E3862B619613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45D306E4-2C8C-4BF3-8388-2B1CEC744305}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DCA6ED3F-10D8-460B-A341-FC1B5B99A2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="162">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,517 +100,430 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>99,87%</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4493C-6B06-4341-BF5B-EA0E2CD44E7F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A49E04-6ED5-4E36-A8E9-6D48179E6B3B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1149,82 +1068,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152357</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1236,153 +1155,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>720</v>
+        <v>1303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>720</v>
+        <v>1988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="D8" s="7">
-        <v>126913</v>
+        <v>193860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>211457</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>631</v>
       </c>
       <c r="N8" s="7">
-        <v>242915</v>
+        <v>405317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,54 +1310,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1447,97 +1366,97 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>685</v>
+        <v>524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>524</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1988</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>211457</v>
+        <v>137293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>193860</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>631</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>405317</v>
+        <v>286950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,153 +1465,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>524</v>
+        <v>1378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>208632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137293</v>
+        <v>207129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N14" s="7">
-        <v>286950</v>
+        <v>415761</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,153 +1620,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>695</v>
+        <v>2510</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>683</v>
+        <v>2100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>1378</v>
+        <v>4610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="7">
-        <v>207129</v>
+        <v>678511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>208632</v>
+        <v>720600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>578</v>
+        <v>2097</v>
       </c>
       <c r="N17" s="7">
-        <v>415761</v>
+        <v>1399111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,217 +1775,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2100</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2510</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4610</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720600</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I20" s="7">
-        <v>678511</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1399111</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2079,8 +1842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643FBCA-01C0-4E2A-B50A-9A6EC6956031}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9632D215-59E5-4262-AE50-AFC38B16EF23}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2096,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2200,97 +1963,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1155</v>
+        <v>661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1155</v>
+        <v>3182</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>24300</v>
+        <v>135730</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>150576</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>390</v>
+      </c>
+      <c r="N5" s="7">
+        <v>286307</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46673</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,153 +2062,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1366</v>
+        <v>685</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>661</v>
+        <v>1323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2027</v>
+        <v>2007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>126277</v>
+        <v>204713</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>319</v>
+      </c>
+      <c r="I8" s="7">
+        <v>220654</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>635</v>
+      </c>
+      <c r="N8" s="7">
+        <v>425369</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>158</v>
-      </c>
-      <c r="I8" s="7">
-        <v>113357</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="7">
-        <v>337</v>
-      </c>
-      <c r="N8" s="7">
-        <v>239634</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,153 +2217,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>685</v>
+        <v>584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2007</v>
+        <v>584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>220655</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>204713</v>
+        <v>165401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>635</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>425369</v>
+        <v>320240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,153 +2372,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1461</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>584</v>
+        <v>1461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165401</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>205621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="N14" s="7">
-        <v>320240</v>
+        <v>415921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,54 +2527,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2820,97 +2583,97 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1461</v>
+        <v>1346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>1461</v>
+        <v>7234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>279</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>205621</v>
+        <v>705582</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1058</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>742253</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>554</v>
+        <v>2074</v>
       </c>
       <c r="N17" s="7">
-        <v>415921</v>
+        <v>1447836</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,217 +2682,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5889</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1346</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7234</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1058</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742253</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705582</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1447836</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3142,8 +2749,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA07F90-BA91-4D67-B880-F2FD2BD24088}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A486F86B-771B-4B85-83E1-AEA12C9998E1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3159,7 +2766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3260,100 +2867,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>600</v>
+        <v>1340</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133107</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>21927</v>
+        <v>147336</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="N5" s="7">
-        <v>47501</v>
+        <v>280443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,153 +2969,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2073</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>740</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>626</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>740</v>
+        <v>2699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>121762</v>
+        <v>205174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>223733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>327</v>
+        <v>662</v>
       </c>
       <c r="N8" s="7">
-        <v>232942</v>
+        <v>428907</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,153 +3124,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>626</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>634</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2073</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2699</v>
+        <v>634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>223733</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>205174</v>
+        <v>166039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>662</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>428907</v>
+        <v>322036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,72 +3279,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3752,73 +3359,73 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166039</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>571</v>
+      </c>
+      <c r="N14" s="7">
+        <v>413156</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="7">
-        <v>506</v>
-      </c>
-      <c r="N14" s="7">
-        <v>322036</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,153 +3434,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1999</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4672</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1057</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>701698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="I17" s="7">
+        <v>742845</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2119</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1444543</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>281</v>
-      </c>
-      <c r="I17" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="7">
-        <v>571</v>
-      </c>
-      <c r="N17" s="7">
-        <v>413156</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,217 +3589,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1999</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2673</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4672</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742845</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I20" s="7">
-        <v>701698</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2119</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1444543</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
